--- a/Documentation/Working_Documents/Switch_Adapted_Nerf_Gun_BOM.xlsx
+++ b/Documentation/Working_Documents/Switch_Adapted_Nerf_Gun_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-Team/Shared Documents/Server/3 AT Library/WIP/Switch Adapted Nerf Gun/Documentation/Working_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradw\GitHub\Switch-Adapted-Nerf-Gun\Documentation\Working_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C7ED0E2-6519-4DE5-8CB7-FB66B0029A50}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED07A38D-1552-428D-A622-B957E0193FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4188" yWindow="2208" windowWidth="13824" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Total Cost</t>
   </si>
@@ -155,28 +155,31 @@
     <t>Allows the gun to be attacked to a 1/4-20 system</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Duracell-CopperTop-Batteries-recloseable-all-purpose/dp/B00000JHQC/ref=sr_1_1_sspa?keywords=d%2Bbattery&amp;qid=1673039608&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFZTDM2TTNDMlo2TVkmZW5jcnlwdGVkSWQ9QTA0MzEzNzYxQlhYMkJFQ0tJVFJWJmVuY3J5cHRlZEFkSWQ9QTA5NzkwODk0N1NHTlhNMTA3WjYmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl&amp;th=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/dp/B018KLHT5O?psc=1&amp;ref=ppx_yo2ov_dt_b_product_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/GRAINGER-APPROVED-T-Nut-Prongs-PK100/dp/B01LX85C5U/ref=sr_1_3?crid=1C6D6G6DRKCGE&amp;keywords=t+nut+1%2F4+20+3+prong&amp;qid=1673039889&amp;sprefix=t+nut+1%2F4+20+3+prong%2Caps%2C146&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Stainless-Button-Socket-Screws-Machine/dp/B097NWWQFC/ref=sr_1_2_sspa?crid=FGZD98ZF2STQ&amp;keywords=1%2F4%2B20%2Bbolt&amp;qid=1673039999&amp;sprefix=1%2F4%2B20%2Bbolt%2Caps%2C143&amp;sr=8-2-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExWjdKN1hCMzhGOEtIJmVuY3J5cHRlZElkPUEwMzc3NDA1MzRGMFJSRE9YWEFBRyZlbmNyeXB0ZWRBZElkPUEwNDQxNDI5M0w1RFlKRkhNVDVQNiZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1</t>
-  </si>
-  <si>
     <t>Mono Jack</t>
   </si>
   <si>
     <t>Toggle Switch</t>
   </si>
   <si>
-    <t>https://www.amazon.ca/Gikfun-MTS102-Position-Toggle-Arduino/dp/B01BWL7Z44/ref=sr_1_1_sspa?keywords=toggle+switch&amp;qid=1673373513&amp;sprefix=toggle+swi%2Caps%2C145&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExRFBEMFpXQzRXMFNVJmVuY3J5cHRlZElkPUEwMTI4ODYxMjVJRlRGOVRGVFY2TiZlbmNyeXB0ZWRBZElkPUEwOTU2NjQzM0ZBWEYyVzNJNDI5SSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/10Pcs-Socket-Chassis-Adapter-Connector/dp/B07R9SV6F5/ref=sr_1_57?crid=JA0ZLQO94SU3&amp;keywords=3.5mm+mono+jack+socket&amp;qid=1673374082&amp;sprefix=3+5mm+mono+jack+socket%2Caps%2C163&amp;sr=8-57</t>
+    <t>https://www.amazon.ca/dp/B018KLHT5O</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/dp/B00000JHQC/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/dp/B097NWWQFC/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/dp/B01BWL7Z44/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/dp/B07R9SV6F5/</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/90975A309/</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005001558947112.html</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,11 +798,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="89.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
@@ -814,7 +817,7 @@
     <col min="12" max="12" width="89.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34.799999999999997">
+    <row r="1" spans="1:12" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -828,7 +831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
@@ -837,7 +840,7 @@
       </c>
       <c r="C2" s="5">
         <f>SUM(G5:G12)+E19</f>
-        <v>92.301900000000003</v>
+        <v>91.186199999999999</v>
       </c>
       <c r="D2" s="23">
         <f>SUM(F14:F18)/60</f>
@@ -848,12 +851,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.2" thickBot="1">
+    <row r="3" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -882,7 +885,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -907,10 +910,10 @@
         <v>71.989999999999995</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -935,10 +938,10 @@
         <v>12.82</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -952,21 +955,21 @@
         <v>100</v>
       </c>
       <c r="E7" s="9">
-        <v>51.59</v>
+        <v>14.4</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" ref="F7:F10" si="0">E7/D7</f>
-        <v>0.51590000000000003</v>
+        <v>0.14400000000000002</v>
       </c>
       <c r="G7" s="17">
         <f>F7*C7</f>
-        <v>1.5477000000000001</v>
+        <v>0.43200000000000005</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -990,16 +993,16 @@
         <f>F8*C8</f>
         <v>1.4391999999999998</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="I8" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1018,16 +1021,19 @@
         <f t="shared" ref="G9:G10" si="1">F9*C9</f>
         <v>1.5960000000000001</v>
       </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="I9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1046,16 +1052,16 @@
         <f t="shared" si="1"/>
         <v>1.3089999999999999</v>
       </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
+      <c r="I10" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="26"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1073,7 @@
       <c r="G12" s="22"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -1090,7 +1096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1112,7 +1118,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1134,28 +1140,28 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E16" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E17" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E18" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1">
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="D19" s="19" t="s">
         <v>19</v>
@@ -1166,7 +1172,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1">
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>20</v>
       </c>
@@ -1182,8 +1188,8 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1"/>
-    <row r="27" spans="1:12" ht="15" thickBot="1">
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="28" t="s">
         <v>21</v>
       </c>
@@ -1199,7 +1205,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="29" t="s">
         <v>22</v>
       </c>
@@ -1208,8 +1214,17 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1" xr:uid="{08F24A30-D37B-427D-9CE7-22D483664E85}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{8A7D05DC-F8F9-4A1F-8ACE-66FF62D079CB}"/>
+    <hyperlink ref="I10" r:id="rId3" xr:uid="{AE2491D1-343C-46F1-94EB-7F126B5D1CFD}"/>
+    <hyperlink ref="I7" r:id="rId4" xr:uid="{1AFE683D-91E4-43D5-8392-AF999CB2A961}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{ADA32689-3E6C-4497-AF9D-CC5BD7591BF9}"/>
+    <hyperlink ref="I5" r:id="rId6" xr:uid="{BB5AE183-1D87-4456-AB56-6E174F124F69}"/>
+    <hyperlink ref="K9" r:id="rId7" xr:uid="{EAC14D70-33F1-4B20-9515-3A83C22EC5FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
